--- a/iselUssSyncV2/OutputWSLorientation/20220524_1333_D50L474W30Q14.9U0.34H56.0G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1333_D50L474W30Q14.9U0.34H56.0G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.53561142088573421</v>
+        <v>0.30623496893492136</v>
       </c>
       <c r="P2" s="0">
         <v>203.16639000000009</v>
@@ -356,10 +356,10 @@
         <v>1.9930622859000009</v>
       </c>
       <c r="R2" s="0">
-        <v>1.4832932424561858</v>
+        <v>2.5943111720562513</v>
       </c>
       <c r="S2" s="0">
-        <v>0.31988220354242031</v>
+        <v>1.2486676983417053</v>
       </c>
       <c r="T2" s="0">
         <v>0.033099120116610273</v>
@@ -383,16 +383,16 @@
         <v>160000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.3436738123337559</v>
+        <v>0.76824334234366332</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.2306132189554493</v>
+        <v>1.5961510724966221</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.5307541030521028</v>
+        <v>1.7653770515260514</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.0779953418623864</v>
+        <v>1.5389976709311932</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.7613673220075512</v>
+        <v>3.3615281240226738</v>
       </c>
     </row>
   </sheetData>
